--- a/va_facility_data_2025-02-20/Lake Baldwin VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lake%20Baldwin%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lake Baldwin VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lake%20Baldwin%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb3d414b0179f4f5b95b15d3d70d94103"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R69f1a1b1651b4ac5b0957f1ca998fb24"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R904c41c0ee594ee8877c690f00686232"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R565d172fdc884a6d961b511e39859d1a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R233d81920c874505bf951f02fe64e664"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3d01392b128d47688823832af1e68dd5"/>
   </x:sheets>
 </x:workbook>
 </file>
